--- a/medicine/Sexualité et sexologie/Attraction_sexuelle_génétique/Attraction_sexuelle_génétique.xlsx
+++ b/medicine/Sexualité et sexologie/Attraction_sexuelle_génétique/Attraction_sexuelle_génétique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Attraction_sexuelle_g%C3%A9n%C3%A9tique</t>
+          <t>Attraction_sexuelle_génétique</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’attraction sexuelle génétique ou GSA[trad 1] est une hypothèse résultant de plusieurs observations qui pourraient s'expliquer par une attirance sexuelle susceptible d’être (ou d’avoir été) ressentie — sporadiquement ou durablement, réciproquement ou unilatéralement — entre personnes génétiquement proches (frère et sœur, mère et fils, père et fille, etc.) à la faveur de retrouvailles tardives succédant à une longue séparation depuis la naissance ou la petite enfance[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’attraction sexuelle génétique ou GSA[trad 1] est une hypothèse résultant de plusieurs observations qui pourraient s'expliquer par une attirance sexuelle susceptible d’être (ou d’avoir été) ressentie — sporadiquement ou durablement, réciproquement ou unilatéralement — entre personnes génétiquement proches (frère et sœur, mère et fils, père et fille, etc.) à la faveur de retrouvailles tardives succédant à une longue séparation depuis la naissance ou la petite enfance.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Attraction_sexuelle_g%C3%A9n%C3%A9tique</t>
+          <t>Attraction_sexuelle_génétique</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,11 +523,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le terme est inventé aux États-Unis dans les années 1980 par Barbara Gonyo, fondatrice de Truth Seekers In Adoption[trad 2], un groupe de soutien, basé à Chicago, destiné aux personnes adoptées ainsi qu'à leurs nouveaux parents[2],[3]. Barbara Gonyo, qui n'est ni médecin ni psychiatre, s'appuie essentiellement sur sa propre expérience[4] dont son ouvrage Forbidden love fait état[5].
-On présume que l’attirance sexuelle génétique peut résulter de la réunion de consanguins à l’âge adulte, généralement lors de retrouvailles tardives, après une scission originelle telle qu'une mesure d'adoption ayant séparé une fratrie (ou autre unité familiale) tôt dans l'existence[1],[6],[7]. Le nombre croissant de retrouvailles intervenant entre frères et sœurs à la faveur du développement des moyens mis en œuvre (dont l'accès à Internet) ainsi que la popularisation des tests ADN laisse augurer la perspective que le phénomène pourrait s'amplifier avec les années[8]. Si la relation sexuelle est consommée, elle est alors non seulement confrontée au tabou de l'inceste mais elle tombe également, dans certains pays, sous le coup de la loi avec toutes les conséquences juridiques susceptibles d'en découler, tant pour les deux parties impliquées que pour les familles directement ou indirectement associées.
-L'ASG ne survient que rarement entre enfants ayant grandi ensemble en raison d'une sublimation de l'attrait sexuel, plus connue sous l'appellation d'effet Westermarck, qui désactive naturellement la propension à un quelconque rapprochement physique érotisé[9]. L'hypothèse la plus couramment admise étant que cette désensibilisation par rapport à une éventuelle forme d'attirance sexuelle consanguine intervient naturellement à dessein de prévenir toute inflexion procréatrice intrafamiliale[10] qui serait alors génératrice de consanguinité[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le terme est inventé aux États-Unis dans les années 1980 par Barbara Gonyo, fondatrice de Truth Seekers In Adoption[trad 2], un groupe de soutien, basé à Chicago, destiné aux personnes adoptées ainsi qu'à leurs nouveaux parents,. Barbara Gonyo, qui n'est ni médecin ni psychiatre, s'appuie essentiellement sur sa propre expérience dont son ouvrage Forbidden love fait état.
+On présume que l’attirance sexuelle génétique peut résulter de la réunion de consanguins à l’âge adulte, généralement lors de retrouvailles tardives, après une scission originelle telle qu'une mesure d'adoption ayant séparé une fratrie (ou autre unité familiale) tôt dans l'existence. Le nombre croissant de retrouvailles intervenant entre frères et sœurs à la faveur du développement des moyens mis en œuvre (dont l'accès à Internet) ainsi que la popularisation des tests ADN laisse augurer la perspective que le phénomène pourrait s'amplifier avec les années. Si la relation sexuelle est consommée, elle est alors non seulement confrontée au tabou de l'inceste mais elle tombe également, dans certains pays, sous le coup de la loi avec toutes les conséquences juridiques susceptibles d'en découler, tant pour les deux parties impliquées que pour les familles directement ou indirectement associées.
+L'ASG ne survient que rarement entre enfants ayant grandi ensemble en raison d'une sublimation de l'attrait sexuel, plus connue sous l'appellation d'effet Westermarck, qui désactive naturellement la propension à un quelconque rapprochement physique érotisé. L'hypothèse la plus couramment admise étant que cette désensibilisation par rapport à une éventuelle forme d'attirance sexuelle consanguine intervient naturellement à dessein de prévenir toute inflexion procréatrice intrafamiliale qui serait alors génératrice de consanguinité.
 </t>
         </is>
       </c>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Attraction_sexuelle_g%C3%A9n%C3%A9tique</t>
+          <t>Attraction_sexuelle_génétique</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,6 +559,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -552,7 +568,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Attraction_sexuelle_g%C3%A9n%C3%A9tique</t>
+          <t>Attraction_sexuelle_génétique</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -570,12 +586,14 @@
           <t>Exemples</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En Allemagne, Patrick Stübing (en) et sa sœur vivent en couple. Ils se sont battus contre les lois prohibant l'inceste dans leur pays. Ayant grandi séparément, ils se sont rencontrés sur le tard, à l'âge adulte. De leur union incestueuse sont nés quatre enfants. Leur appel a été rejeté en 2008, corroborant la teneur des amendements juridiques en leur défaveur[11],[12].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En Allemagne, Patrick Stübing (en) et sa sœur vivent en couple. Ils se sont battus contre les lois prohibant l'inceste dans leur pays. Ayant grandi séparément, ils se sont rencontrés sur le tard, à l'âge adulte. De leur union incestueuse sont nés quatre enfants. Leur appel a été rejeté en 2008, corroborant la teneur des amendements juridiques en leur défaveur,.
 En 1997, Kathryn Harrison (en) publie un mémoire. Elle y évoque sa trajectoire incestueuse entretenue avec un père biologique qu'elle n'avait pas revu depuis presque 20 ans avant qu'une attirance mutuelle irrésistible ne les « aimante » l'un vers l'autre[H 1]. Elle relate son parcours dans un ouvrage intitulé The Kiss[H 2],[trad 3],[H 1], paru en français sous le titre suivant : Le Rapt[H 3].
-En Afrique du Sud, un homme et une femme, ayant partagé leur lit pendant cinq ans et attendant un enfant, découvrent inopinément qu'ils sont frère et sœur peu avant de conclure leur mariage. Élevés séparément, les retrouvailles n'ont eu lieu qu'à l'âge adulte alors que les circonstances les avaient réunis dans différents collèges sans qu'ils ne soient mis pour autant au courant de leur filiation respective[13].
-Un homme américain marié, Ben Ford, 32 ans, retrouve en 2013 en Angleterre sa mère, Kim West, 51 ans, après avoir été abandonnée par elle il y avait 30 ans. Pendant leurs retrouvailles, l'attraction entre eux est si forte, que le jeune homme quitte sa femme et s'installe avec sa mère dans le Michigan et ils prévoient maintenant de se marier et d'avoir un enfant ensemble. En réponse à ceux qui les accusent de relation incestueuse, qui est punie par la loi dans le Michigan de quinze ans de prison, le couple explique qu'ils ne font "rien de mal" et qu'ils sont victimes de ce qu'on appelle "l'attraction sexuelle génétique"[14],[15].
+En Afrique du Sud, un homme et une femme, ayant partagé leur lit pendant cinq ans et attendant un enfant, découvrent inopinément qu'ils sont frère et sœur peu avant de conclure leur mariage. Élevés séparément, les retrouvailles n'ont eu lieu qu'à l'âge adulte alors que les circonstances les avaient réunis dans différents collèges sans qu'ils ne soient mis pour autant au courant de leur filiation respective.
+Un homme américain marié, Ben Ford, 32 ans, retrouve en 2013 en Angleterre sa mère, Kim West, 51 ans, après avoir été abandonnée par elle il y avait 30 ans. Pendant leurs retrouvailles, l'attraction entre eux est si forte, que le jeune homme quitte sa femme et s'installe avec sa mère dans le Michigan et ils prévoient maintenant de se marier et d'avoir un enfant ensemble. En réponse à ceux qui les accusent de relation incestueuse, qui est punie par la loi dans le Michigan de quinze ans de prison, le couple explique qu'ils ne font "rien de mal" et qu'ils sont victimes de ce qu'on appelle "l'attraction sexuelle génétique",.
 </t>
         </is>
       </c>
@@ -586,7 +604,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Attraction_sexuelle_g%C3%A9n%C3%A9tique</t>
+          <t>Attraction_sexuelle_génétique</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -604,9 +622,11 @@
           <t>Critiques</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Amanda Marcotte de Salon.com a déclaré que ce terme n'est rien d'autre qu'une tentative de paraître scientifique tout en essayant de minimiser le tabou de l'inceste. Elle a également déclaré que de nombreux médias ont mal géré les reportages sur le sujet en répétant ce que les défenseurs de l'hypothèse ont dit au lieu d'examiner réellement les recherches sur le phénomène supposé. Elle affirme que la plupart des publications qui ont choisi de publier des histoires de couples parlant d'"attirance sexuelle génétique" ne sont pas des sources d'information légitimes et que l'un des blogs écrits par une femme vivant une relation incestueuse se lit tout simplement comme l'histoire d'une jeune fille qui a été séduite par son père[16].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Amanda Marcotte de Salon.com a déclaré que ce terme n'est rien d'autre qu'une tentative de paraître scientifique tout en essayant de minimiser le tabou de l'inceste. Elle a également déclaré que de nombreux médias ont mal géré les reportages sur le sujet en répétant ce que les défenseurs de l'hypothèse ont dit au lieu d'examiner réellement les recherches sur le phénomène supposé. Elle affirme que la plupart des publications qui ont choisi de publier des histoires de couples parlant d'"attirance sexuelle génétique" ne sont pas des sources d'information légitimes et que l'un des blogs écrits par une femme vivant une relation incestueuse se lit tout simplement comme l'histoire d'une jeune fille qui a été séduite par son père.
 </t>
         </is>
       </c>
@@ -617,7 +637,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Attraction_sexuelle_g%C3%A9n%C3%A9tique</t>
+          <t>Attraction_sexuelle_génétique</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -635,7 +655,9 @@
           <t>Dans la fiction</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t>Le thème de l'inceste apparaît dans la tragédie de Sophocle Œdipe roi, écrite aux alentours de 429 av. J.-C.
 L'évocation en est également présente dans « La Mort d'Arthur », lorsque le roi Arthur entretient une liaison avec Morgause alors qu'il ignore à l'époque qu'elle est sa sœur. Son (deuxième) fils illégitime, Mordred, naît de cette union. Dans la dernière partie de la Morte, Arthur et Mordred s'entretuent au cours d'un affrontement.
@@ -647,10 +669,10 @@
 Dans Nip/Tuck, Matt rencontre sa demi-sœur et chacun éprouve aussitôt l'un pour l'autre une attraction fulgurante instantanée sans pour autant connaître la nature de leurs filiation.
 Dans le film Star Wars, Luke Skywalker ressent de l'attirance pour la princesse Leia Organa (sans pour autant consommer cet amour), qui se révélera être sa sœur.[réf. nécessaire]
 Dans le film Joe La Crasse (Joe Dirt), le protagoniste entame des rapports sexuels avec une femme qu'il croit être la sœur dont il a perdu la trace depuis des lustres.
-Dans le manga Koi kaze, les deux personnages principaux, Koshiro et Nanoka, perçoivent l'émergence d'une attirance charnelle s'attiser inexorablement entre eux avant de réaliser qu'ils sont frère et sœur ayant grandi dans des foyers séparés. L'histoire se focalise dès lors sur la lutte des deux jeunes tourtereaux en proie aux sentiments inextricables qui les étreignent malgré la mise au courant subreptice de leur proximité généalogique[17].
-La Colline aux coquelicots, un film de Goro Miyazaki, sorti sur les écrans le 11 janvier 2012[18].
-La douzième saison (2015-2016) de la série télévisée française Plus belle la vie met en évidence l'attirance conjointe spontanée et irrésistible éprouvée réciproquement entre Jonas Malkavian et Océane Mougin. Cette union les conduira jusqu'à se connaître (au sens biblique du terme) alors que ni l'un ni l'autre n'est au courant de la filiation de demi-frère et sœur qui les lie au même père, Sacha Malkavian. En effet, ce dernier a jadis été utilisé secrètement comme géniteur d'appoint par Claire Mougin (substitut du procureur) au cours d'une brève amourette calculée par ses soins à dessein de pallier la stérilité de celui qu'elle allait finalement épouser, Arnaud Mougin, lequel tenait envers et contre tout à avoir un enfant. Sacha Malkavian ignore ainsi qu'Océane Mougin est en réalité sa fille[19].
-Le roman Le Crime[20] de l'Islandais Arni Thorarinsson est construit sur cette notion.
+Dans le manga Koi kaze, les deux personnages principaux, Koshiro et Nanoka, perçoivent l'émergence d'une attirance charnelle s'attiser inexorablement entre eux avant de réaliser qu'ils sont frère et sœur ayant grandi dans des foyers séparés. L'histoire se focalise dès lors sur la lutte des deux jeunes tourtereaux en proie aux sentiments inextricables qui les étreignent malgré la mise au courant subreptice de leur proximité généalogique.
+La Colline aux coquelicots, un film de Goro Miyazaki, sorti sur les écrans le 11 janvier 2012.
+La douzième saison (2015-2016) de la série télévisée française Plus belle la vie met en évidence l'attirance conjointe spontanée et irrésistible éprouvée réciproquement entre Jonas Malkavian et Océane Mougin. Cette union les conduira jusqu'à se connaître (au sens biblique du terme) alors que ni l'un ni l'autre n'est au courant de la filiation de demi-frère et sœur qui les lie au même père, Sacha Malkavian. En effet, ce dernier a jadis été utilisé secrètement comme géniteur d'appoint par Claire Mougin (substitut du procureur) au cours d'une brève amourette calculée par ses soins à dessein de pallier la stérilité de celui qu'elle allait finalement épouser, Arnaud Mougin, lequel tenait envers et contre tout à avoir un enfant. Sacha Malkavian ignore ainsi qu'Océane Mougin est en réalité sa fille.
+Le roman Le Crime de l'Islandais Arni Thorarinsson est construit sur cette notion.
 Dans Stone Ocean, sixième partie de JoJo's Bizarre Adventure manga de Hirohiko Araki, Weather Report et Perla Pucci entretiennent une relation amoureuse sans savoir qu’ils sont frères et soeurs, Weather Report étant le frère jumeau de Enrico Pucci, séparés à la naissance.</t>
         </is>
       </c>
@@ -661,7 +683,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Attraction_sexuelle_g%C3%A9n%C3%A9tique</t>
+          <t>Attraction_sexuelle_génétique</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -679,7 +701,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>(en) Cet article est partiellement ou en totalité issu de l’article de Wikipédia en anglais intitulé « Genetic sexual attraction » (voir la liste des auteurs).</t>
         </is>
